--- a/data/invoices-report.xlsx
+++ b/data/invoices-report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -80,19 +80,37 @@
     <t>Item 2 Total</t>
   </si>
   <si>
-    <t>2024-001</t>
-  </si>
-  <si>
-    <t>2024-01</t>
-  </si>
-  <si>
-    <t>outgoing</t>
+    <t>Item 3 Description</t>
+  </si>
+  <si>
+    <t>Item 3 Total</t>
+  </si>
+  <si>
+    <t>OS-112233</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>OfficeSupply Hub</t>
+  </si>
+  <si>
+    <t>321 Stationery Lane
+San Jose, CA 95110</t>
+  </si>
+  <si>
+    <t>+1 (408) 555-2233</t>
+  </si>
+  <si>
+    <t>orders@officesupplyhub.com</t>
   </si>
   <si>
     <t>TechNova Solutions, Inc.</t>
   </si>
   <si>
-    <t>1250 Charleston Road, Mountain View, CA 94043, United States</t>
+    <t>1250 Charleston Road
+Mountain View, CA 94043
+United States</t>
   </si>
   <si>
     <t>+1 (650) 555-0123</t>
@@ -101,25 +119,16 @@
     <t>info@technovasolutions.com</t>
   </si>
   <si>
-    <t>Harmony Health Systems</t>
-  </si>
-  <si>
-    <t>789 Wellness Ave, San Francisco, CA 94122, United States</t>
-  </si>
-  <si>
-    <t>+1 (415) 555-7890</t>
-  </si>
-  <si>
-    <t>contact@harmonyhealthsystems.com</t>
-  </si>
-  <si>
-    <t>Payment is due within 30 days</t>
-  </si>
-  <si>
-    <t>Custom EHR Integration Development</t>
-  </si>
-  <si>
-    <t>Project Management (80 hours)</t>
+    <t>Net 30</t>
+  </si>
+  <si>
+    <t>Ergonomic Office Chairs (5)</t>
+  </si>
+  <si>
+    <t>Standing Desks (3)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Office Supplies</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -149,7 +158,7 @@
     <t>Net Tax</t>
   </si>
   <si>
-    <t>2024-01 to 2024-01</t>
+    <t>2024-02 to 2024-02</t>
   </si>
   <si>
     <t>MONTHLY</t>
@@ -263,7 +272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-01</c:v>
+                  <c:v>2024-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -275,7 +284,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61845</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +305,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-01</c:v>
+                  <c:v>2024-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -329,7 +338,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2024-01</c:v>
+                  <c:v>2024-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -341,7 +350,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61845</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,13 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,70 +826,79 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>45306</v>
+        <v>45344</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2">
-        <v>57000</v>
+        <v>3750</v>
       </c>
       <c r="N2">
-        <v>8.5</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="O2">
-        <v>4845</v>
+        <v>351.75</v>
       </c>
       <c r="P2">
-        <v>61845</v>
+        <v>4101.75</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2">
-        <v>45000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2">
-        <v>12000</v>
+        <v>1800</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -898,20 +916,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -919,15 +937,15 @@
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
-        <v>61845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -935,23 +953,23 @@
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4">
-        <v>61845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
-        <v>4845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -959,15 +977,15 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
-        <v>4845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -975,12 +993,12 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -988,15 +1006,15 @@
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4">
-        <v>61845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -1004,23 +1022,23 @@
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4">
-        <v>61845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
-        <v>4845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="4" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1028,10 +1046,10 @@
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
-        <v>4845</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
